--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -1,89 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CredKart_login_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="CredKart_login_Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Expectedresult</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Testcase_Stauts</t>
-  </si>
-  <si>
-    <t>Credencetest@test.com</t>
-  </si>
-  <si>
-    <t>Credence@123</t>
-  </si>
-  <si>
-    <t>login_pass</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Credencetest@test.com1</t>
-  </si>
-  <si>
-    <t>login_fail</t>
-  </si>
-  <si>
-    <t>Credence@1231</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,21 +63,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -383,124 +405,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col width="36.140625" customWidth="1" min="1" max="1"/>
+    <col width="27.140625" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.42578125" customWidth="1" min="4" max="4"/>
+    <col width="14.140625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Expectedresult</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Testcase_Stauts</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Credencetest@test.com</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Credence@123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>login_pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>login_pass</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Credencetest@test.com1</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Credence@123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Credencetest@test.com</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Credence@1231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Credencetest@test.com1</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Credence@1231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>login_fail</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -1,49 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="CredKart_login_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CredKart_login_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Expectedresult</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Testcase_Stauts</t>
+  </si>
+  <si>
+    <t>Credencetest@test.com</t>
+  </si>
+  <si>
+    <t>Credence@123</t>
+  </si>
+  <si>
+    <t>login_pass</t>
+  </si>
+  <si>
+    <t>Credencetest@test.com1</t>
+  </si>
+  <si>
+    <t>login_fail</t>
+  </si>
+  <si>
+    <t>Credence@1231</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,83 +100,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,205 +373,107 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E5" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="36.140625" customWidth="1" min="1" max="1"/>
-    <col width="27.140625" customWidth="1" min="2" max="2"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.42578125" customWidth="1" min="4" max="4"/>
-    <col width="14.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Expectedresult</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Actual Result</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Testcase_Stauts</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Credencetest@test.com</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Credence@123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>login_pass</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>login_pass</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Credencetest@test.com1</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Credence@123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Credencetest@test.com</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Credence@1231</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Credencetest@test.com1</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Credence@1231</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>login_fail</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId7"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
